--- a/biology/Botanique/Vignoble_de_la_Basse-Bourgogne/Vignoble_de_la_Basse-Bourgogne.xlsx
+++ b/biology/Botanique/Vignoble_de_la_Basse-Bourgogne/Vignoble_de_la_Basse-Bourgogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Basse-Bourgogne est une zone qui correspond au département de l'Yonne, un des quatre départements de l'ancienne région Bourgogne.
 C'est aussi une des subdivisions du vignoble de Bourgogne (avec la côte de Nuits, la côte de Beaune, la côte chalonnaise et le Mâconnais), ainsi que sa partie la plus septentrionale.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,27 +552,64 @@
           <t>Appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Comme pour les autres départements du vignoble de Bourgogne, les 55 communes viticoles de l'Yonne se trouve dans l'aire de production des six appellations régionales bourguignonnes (bourgogne, bourgogne-aligoté, bourgogne mousseux, coteaux-bourguignons, bourgogne-passe-tout-grains et crémant-de-bourgogne)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour les autres départements du vignoble de Bourgogne, les 55 communes viticoles de l'Yonne se trouve dans l'aire de production des six appellations régionales bourguignonnes (bourgogne, bourgogne-aligoté, bourgogne mousseux, coteaux-bourguignons, bourgogne-passe-tout-grains et crémant-de-bourgogne).
 Plusieurs communes ont droit à une dénomination géographique au sein de l'AOC bourgogne (ils ont le droit d'accoler le nom de la commune à l'appellation bourgogne) : bourgogne-chitry, bourgogne-côte-d'auxerre, bourgogne-côte-saint-jacques, bourgogne-coulanges-la-vineuse, bourgogne-épigneul et bourgogne-tonnerre.
 En plus de ces AOC, il y a cinq appellations communales, le saint-bris, l'irancy, le vézelay, le petit-chablis et le chablis, avec tout en haut de la hiérarchie un unique grand cru : le chablis grand cru.
-Liste des appellations
-Vignoble du Tonnerrois :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vignoble_de_la_Basse-Bourgogne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vignoble_de_la_Basse-Bourgogne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Appellations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des appellations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vignoble du Tonnerrois :
 Bourgogne tonnerre
 Bourgogne épineuil
-Vignoble de Chablis[2] :
+Vignoble de Chablis :
 Petit-chablis
 Chablis (AOC)
 Chablis premier cru
 Chablis grand cru
-Vignoble auxerrois[3] :
+Vignoble auxerrois :
 irancy
 saint-bris
 bourgogne-côte-d'auxerre
 bourgogne-coulanges-la-vineuse
 bourgogne-chitry
-Vignoble de Joigny[4] :
+Vignoble de Joigny :
 bourgogne-côte-saint-jacques
 Vignoble du Vézelien :
 vézelay</t>
